--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PO_UI_Test_Framework\element_info_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE5A4F-C446-4606-A151-4D242F7651B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B266C3-91A0-47A3-8416-9A7CD80DF6D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迭代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +136,10 @@
   </si>
   <si>
     <t>username_showspan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +607,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -689,16 +689,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>5</v>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B266C3-91A0-47A3-8416-9A7CD80DF6D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598C909E-4451-4CF2-83C0-0AB38279211E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,102 @@
   </si>
   <si>
     <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id='my']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id='project']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id='qa']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id='doc']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myzone_menu_homepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="btn-group"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_menu_productpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_menu_projectpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_menu_testpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="btn-group angle-btn"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_menu_filepage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -615,7 +711,7 @@
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -702,6 +798,142 @@
       </c>
       <c r="E5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598C909E-4451-4CF2-83C0-0AB38279211E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8AD37-9681-486D-BF19-8712A94D3287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>file_menu_filepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@type='button'][@class='btn']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -691,6 +703,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -702,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8AD37-9681-486D-BF19-8712A94D3287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19987BB4-6400-4F1F-8E60-68DBF92952BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,15 @@
   <si>
     <t>//button[@type='button'][@class='btn']</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属页面</t>
+  </si>
+  <si>
+    <t>login_page</t>
+  </si>
+  <si>
+    <t>main_page</t>
   </si>
 </sst>
 </file>
@@ -621,21 +630,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,16 +652,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -660,16 +672,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,16 +692,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -694,16 +712,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -711,12 +732,15 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
@@ -729,22 +753,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="2" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="48.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,16 +776,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -769,16 +796,19 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -786,16 +816,19 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -803,16 +836,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -820,16 +856,19 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -837,16 +876,19 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -854,16 +896,19 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -871,16 +916,19 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -888,16 +936,19 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -905,16 +956,19 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -922,16 +976,19 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -939,16 +996,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -956,20 +1016,23 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5" xr:uid="{161EDC4D-A6DA-42B9-926B-1FF286C42195}">
-      <formula1>$C$3:$C$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5" xr:uid="{161EDC4D-A6DA-42B9-926B-1FF286C42195}">
+      <formula1>$D$3:$D$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19987BB4-6400-4F1F-8E60-68DBF92952BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757FF4CC-1991-4F47-9943-E3F41494FC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,9 +700,6 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -720,9 +717,6 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -739,9 +733,6 @@
       </c>
       <c r="E5" t="s">
         <v>54</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757FF4CC-1991-4F47-9943-E3F41494FC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724D52E4-7642-41EF-AD36-DE1C866722E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="21960" windowHeight="8964" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="main_page" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,29 @@
   </si>
   <si>
     <t>main_page</t>
+  </si>
+  <si>
+    <t>用户菜单</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>userNav</t>
+  </si>
+  <si>
+    <t>退出按钮</t>
+  </si>
+  <si>
+    <t>//a[@href='/zentao/www/index.php?m=user&amp;f=logout']</t>
+  </si>
+  <si>
+    <t>user_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -744,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -755,7 +778,7 @@
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54.21875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1017,6 +1040,40 @@
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724D52E4-7642-41EF-AD36-DE1C866722E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A4FDD-2381-41F5-B181-D5A2B84FDC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="348" windowWidth="21960" windowHeight="8964" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
@@ -272,14 +272,15 @@
     <t>退出按钮</t>
   </si>
   <si>
-    <t>//a[@href='/zentao/www/index.php?m=user&amp;f=logout']</t>
-  </si>
-  <si>
     <t>user_menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>quit_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/user-logout.html"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1045,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -1058,10 +1059,13 @@
       <c r="E14" t="s">
         <v>60</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -1073,7 +1077,10 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A4FDD-2381-41F5-B181-D5A2B84FDC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A66A835-786D-4F3F-8BF8-8D1807C29365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="21960" windowHeight="8964" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="672" yWindow="2544" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//input[@name="account"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//input[@name="password"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +277,10 @@
   </si>
   <si>
     <t>//a[@href="/zentao/user-logout.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//inpu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,30 +733,30 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -805,19 +805,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -825,19 +825,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -845,19 +845,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -865,19 +865,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -885,19 +885,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -905,19 +905,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -925,19 +925,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -945,19 +945,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -965,19 +965,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -985,19 +985,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1005,19 +1005,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1025,19 +1025,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1045,19 +1045,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1065,19 +1065,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
       </c>
       <c r="F15">
         <v>1</v>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A66A835-786D-4F3F-8BF8-8D1807C29365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02B28E-0436-41BD-8272-E244EF032DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="672" yWindow="2544" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
@@ -280,7 +280,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//inpu</t>
+    <t>//input[@name="account"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02B28E-0436-41BD-8272-E244EF032DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295001E1-1564-4A4A-8C95-E05DFE7031D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="2544" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="108" yWindow="2520" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
